--- a/injury_data.xlsx
+++ b/injury_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,237 +441,520 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>SEX</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>TEAM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Injury Date</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Return Date</t>
+          <t>INJURY_DATE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Injury Location</t>
+          <t>RETURN_DATE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Injury Side</t>
+          <t>INJURY_LOCATION</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Injury Type</t>
+          <t>INJURY_SIDE</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Occurrence</t>
+          <t>INJURY_TYPE</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Overuse/Trauma</t>
+          <t>OCCURRENCE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Onset</t>
+          <t>OVERUSE_TRAUMA</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>ONSET</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>CONTACT</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Action Description</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Re-injury</t>
+          <t>ACTION_DESCRIPTION</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Referee Sanction</t>
+          <t>RE_INJURY</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Diagnostic Examination</t>
+          <t>REFEREE_SANCTION</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>DIAGNOSTIC_EXAMINATION</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Surgery</t>
+          <t>DIAGNOSIS</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Menstrual Phase</t>
+          <t>SURGERY</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Oral Contraceptives</t>
+          <t>MENSTRUAL_PHASE</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Hormonal Contraceptives</t>
+          <t>ORAL_CONTRACEPTIVES</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Other Comments</t>
+          <t>HORMONAL_CONTRACEPTIVES</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>OTHER_COMMENTS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1.docx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.docx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Luca F</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FC B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>xx11x</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lower leg (incl. Achilles tendon)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Bilateral/central</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Muscle rupture/tear/strain**</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A (gradual onset injury)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Gradual onset</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Should appear</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.docx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All filled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FC ALL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>XXXXX</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Training, Match (min. of injury: 70), N/A (gradual onset injury), Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Did everything</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>DIagnosis</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>xxxx_yy.docx</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2022-5-3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2022-6-3</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Joint sprain (i.e., ligament/capsule)</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Match (min. of injury: 70), National team</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>MRI</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/injury_data.xlsx
+++ b/injury_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,117 +446,142 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>FILE_FORMAT</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TEAM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>INJURY_DATE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RETURN_DATE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>INJURY_LOCATION</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>INJURY_SIDE</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>INJURY_TYPE</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>OCCURRENCE</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>OCCURRENCE_ONSET_TYPE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>OCCURRENCE_MATCH_MINUTE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>OCCURRENCE_CONTEXT</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>OVERUSE_TRAUMA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ONSET</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CONTACT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ACTION</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ACTION_DESCRIPTION</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>RE_INJURY</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RECURRENCE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>PREVIOUS_RETURN_DATE</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>REFEREE_SANCTION</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_EXAMINATION</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSIS</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>SURGERY</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>MENSTRUAL_PHASE</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>ORAL_CONTRACEPTIVES</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>HORMONAL_CONTRACEPTIVES</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>OTHER_COMMENTS</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>UPDATED_AT</t>
         </is>
       </c>
     </row>
@@ -573,101 +598,122 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Neymar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>PSG</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>xx11asx</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2024-06-23</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Right, Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Muscle rupture/tear/strain**, Other injury</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Match, Friendly match</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Friendly match</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Both, Overuse and Trauma</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
         <is>
           <t>Dive</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>No comment</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:51</t>
         </is>
       </c>
     </row>
@@ -684,101 +730,122 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Neymar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>PSG</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>xx11asx</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>2024-06-23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Right, Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Muscle rupture/tear/strain**, Other injury</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Match, Friendly match</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Friendly match</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>Both, Overuse and Trauma</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Dive</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Ultrasonography</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>No comment</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:51</t>
         </is>
       </c>
     </row>
@@ -793,7 +860,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -816,6 +887,15 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:51</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -828,7 +908,11 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -851,6 +935,15 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:52</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -865,101 +958,114 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Luca F</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>FC B</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>xx11x</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Lower leg (incl. Achilles tendon), Thigh</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Muscle rupture/tear/strain**</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>Friendly match</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Overuse (repetitive mechanism)</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Both, Gradual and Sudden</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
         <is>
           <t>Twisted the knee</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Ultrasonography</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr">
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>No comment</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:52</t>
         </is>
       </c>
     </row>
@@ -976,101 +1082,114 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Luca F</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>FC B</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>xx11x</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>2025-06-23</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Lower leg (incl. Achilles tendon), Thigh</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Muscle rupture/tear/strain**</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>Friendly match</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Overuse (repetitive mechanism)</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Both, Gradual and Sudden</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Twisted the knee</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>X-ray</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr">
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>No comment</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:52</t>
         </is>
       </c>
     </row>
@@ -1087,117 +1206,138 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>All filled</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>FC ALL</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>XXXXX</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>2025-10-12</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Right, Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Training, Match (min. of injury: 70), N/A (gradual onset injury), Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Both, Overuse and Trauma</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Both, Gradual and Sudden</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Did everything</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>DIagnosis</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
           <t>Comment</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:53</t>
         </is>
       </c>
     </row>
@@ -1214,117 +1354,134 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>All filled</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>FC ALL</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>XXXXX</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>2025-10-12</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Right, Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Training, Match (min. of injury: 70), N/A (gradual onset injury), Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Both, Overuse and Trauma</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Both, Gradual and Sudden</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Did everything</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>DIagnosis</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
           <t>Comment</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:53</t>
         </is>
       </c>
     </row>
@@ -1341,117 +1498,134 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>All filled</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>FC ALL</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>XXXXX</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>2025-06-10</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>2025-10-12</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Right, Left, Bilateral/central</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Training, Match (min. of injury: 70), N/A (gradual onset injury), Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Both, Overuse and Trauma</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Both, Gradual and Sudden</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Did everything</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>DIagnosis</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
           <t>Comment</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:54</t>
         </is>
       </c>
     </row>
@@ -1468,115 +1642,136 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Custom Injury</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Match (min. of injury: 70), National team</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Yes, 08.06.2014</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>MRI, Custom Exam</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AA11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:54</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1591,115 +1786,136 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Custom Injury</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Match (min. of injury: 70), Other cup match</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Yes, 08.06.2014</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>No foul</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Ultrasonography, Custom Exam</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>MRI, Custom Exam</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:54</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1714,115 +1930,136 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Joint sprain (i.e., ligament/capsule)</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Match (min. of injury: 70), National team</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Yes, random text</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>MRI</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
         <is>
           <t>Yes, Using Contra 1</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>Yes, Using Hormone 1</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:54</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1837,115 +2074,136 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Joint sprain (i.e., ligament/capsule)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Match (min. of injury: 70), Other cup match</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Yes, random text</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>No foul</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="AA14" t="inlineStr">
         <is>
           <t>Yes, Using Contra 1</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
         <is>
           <t>Yes, Using Hormone 1</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:55</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1960,115 +2218,136 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Joint sprain (i.e., ligament/capsule)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Match (min. of injury: 70), National team</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>MRI</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:55</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2083,115 +2362,136 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Joint sprain (i.e., ligament/capsule)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Match (min. of injury: 70), Other cup match</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>No foul</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
       <c r="T16" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:02:55</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/injury_data.xlsx
+++ b/injury_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,149 +446,244 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FILE_FORMAT</t>
+          <t>FORM_TYPE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>UPDATED_AT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>TEAM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CODE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INJURY_DATE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>RETURN_DATE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>INJURY_LOCATION</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>INJURY_SIDE</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>INJURY_SITE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>AFFECTED_ORGAN</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>INJURY_CLASSIFICATION</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ACL_GRADING</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MCL_GRADING</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>OCCURRENCE_ONSET_TYPE</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OCCURRENCE_MATCH_MINUTE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>OCCURRENCE_CONTEXT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>OVERUSE_TRAUMA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ONSET</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>HEADER_DUEL</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CONTACT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>CONTACT_POINT</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>ACTION</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>ACTION_DESCRIPTION</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>RECURRENCE</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>PREVIOUS_RETURN_DATE</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>PREVIOUS_CONTRALATERAL_INJURY</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>PREVIOUS_CONTRALATERAL_INURY_RETURN_DATE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>REFEREE_SANCTION</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_EXAMINATION</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_EXAMINATION_DATE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>DIAGNOSIS</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>SURGERY</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>PLAYER_SUBSTITUTION</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>PLAYER_SUBSTITUTION_TIME</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>REVIEW_SYSTEM</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>CONCUSSION_DOMAINS</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>BRACING</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>ACL_REPAIR</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>MCL_REPAIR</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ACL_REPAIR_SPECIFICATION</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>MCL_REPAIR_SPECIFICATION</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>MENSTRUAL_PHASE</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>ORAL_CONTRACEPTIVES</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>HORMONAL_CONTRACEPTIVES</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>OTHER_COMMENTS</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>UPDATED_AT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>checked_not_filled.docx</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury.docx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -598,129 +693,148 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>INJURY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Neymar</t>
+          <t>2025-11-10 13:42:44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Max Mustermann</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xx11asx</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-06-23</t>
-        </is>
-      </c>
+          <t>FC Bayern</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>2006-05-24</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2006-05-28</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Right, Left, Bilateral/central</t>
+          <t>Chest, Forearm, Knee</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Muscle rupture/tear/strain**, Other injury</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>Arthritis/synovitis/capsulitis, Haematoma/contusion/bruise (incl. compartment syndrome), Other</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Europa Conference League</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Landing (incl. jumping)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Jumped onto other Player</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Friendly match</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Both, Overuse and Trauma</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Sudden onset</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Dive</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>No comment</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:51</t>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>2005-06-25</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>checked_not_filled.pdf</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury.pdf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -730,129 +844,148 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>INJURY</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neymar</t>
+          <t>2025-11-10 13:42:45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Max Mustermann</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>xx11asx</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-06-23</t>
-        </is>
-      </c>
+          <t>FC Bayern</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>2006-05-24</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2006-05-28</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Right, Left, Bilateral/central</t>
+          <t>Chest, Forearm, Knee</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Muscle rupture/tear/strain**, Other injury</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>Arthritis/synovitis/capsulitis, Haematoma/contusion/bruise (incl. compartment syndrome), Other</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Europa Conference League</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Landing (incl. jumping)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Jumped onto other Player</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Friendly match</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Both, Overuse and Trauma</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Sudden onset</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Dive</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>No comment</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:51</t>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>2005-06-25</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>empty.docx</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury filled.docx</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -862,45 +995,152 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OLD</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>INJURY</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Max Mustermann</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FC Bayern</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2006-05-24</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2006-05-28</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Neck, Shoulder, Hand, Lower leg (incl. Achilles tendon), Chest, Upper arm, Hip, Ankle, Thoracic spine, Elbow, Groin, Foot, Abdomen, Forearm, Thigh, Other injury, Lumbosacral, Wrist, Knee</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Abrasion, Joint dislocation/subluxation, Other bone injury (e.g., bone stress injury), Arthritis/synovitis/capsulitis, Joint sprain (i.e., ligament/capsule), Overuse unspecified, Bursitis, Laceration, Tendon rupture/tendinopathy, Cartilage lesion, Muscle rupture/tear/strain, Vessel injury (excl. skin haematoma), Fracture (Specify if stress fracture), Haematoma/contusion/bruise (incl. compartment syndrome), Nerve injury (central or peripheral other than concussion), Other type</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Jumped onto other Player</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:51</t>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Clinical only, Ultrasonography, Arthroscopy, X-ray, MRI, Diagnosically checked for all types of thing. I just need a long message.</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>2005-06-25, Wrong date format, 2025-05-16, 2025-08-12</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>empty.pdf</t>
+          <t>FC Bayern, Harry Kane 29-05-2006, Injury filled.pdf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -910,45 +1150,152 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OLD</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>INJURY</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Max Mustermann</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FC Bayern</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2006-05-24</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2006-05-28</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Neck, Shoulder, Hand, Lower leg (incl. Achilles tendon), Chest, Upper arm, Hip, Ankle, Thoracic spine, Elbow, Groin, Foot, Abdomen, Forearm, Thigh, Lumbosacral, Wrist, Knee, Other injury</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Abrasion, Joint dislocation/subluxation, Other bone injury (e.g., bone stress injury), Arthritis/synovitis/capsulitis, Joint sprain (i.e., ligament/capsule), Overuse unspecified, Bursitis, Laceration, Tendon rupture/tendinopathy, Cartilage lesion, Muscle rupture/tear/strain, Vessel injury (excl. skin haematoma), Fracture (Specify if stress fracture), Haematoma/contusion/bruise (incl. compartment syndrome), Nerve injury (central or peripheral other than concussion), Other type</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
       <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Jumped onto other Player</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:52</t>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Clinical only, Ultrasonography, Arthroscopy, X-ray, MRI, Diagnosically checked for all types of thing. I just need a long message.</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>2005-06-25, Wrong date format, 2025-05-16, 2025-08-12</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Broken leg</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>filled_not_checked.docx</t>
+          <t>FCB, Neymar 28-05-2025, Head.docx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -958,121 +1305,156 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Luca F</t>
+          <t>2025-11-10 13:42:46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC B</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>xx11x</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Lower leg (incl. Achilles tendon), Thigh</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Left, Bilateral/central</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Muscle rupture/tear/strain**</t>
-        </is>
-      </c>
+          <t>Left, Nose</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Friendly match</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Overuse (repetitive mechanism)</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Both, Gradual and Sudden</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Twisted the knee</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Other cup match, Other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+          <t>Sudden onset</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Ultrasonography</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Yes, with opponent</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Shoulder, Cornerflag</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>No comment</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:52</t>
-        </is>
-      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>General fatigue (e.g. low energy…), Something</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>filled_not_checked.pdf</t>
+          <t>FCB, Neymar 28-05-2025, Head.pdf</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1082,994 +1464,1131 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Luca F</t>
+          <t>2025-11-10 13:42:46</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC B</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xx11x</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-06-23</t>
-        </is>
-      </c>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>Wrong date format</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Lower leg (incl. Achilles tendon), Thigh</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Left, Bilateral/central</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Muscle rupture/tear/strain**</t>
-        </is>
-      </c>
+          <t>Left, Nose</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Friendly match</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Overuse (repetitive mechanism)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Both, Gradual and Sudden</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Concussion, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Other</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Twisted the knee</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Other cup match, Other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+          <t>Sudden onset</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>Ultrasonography</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Yes, with opponent</t>
+        </is>
+      </c>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>Shoulder, Cornerflag</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>No comment</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:52</t>
-        </is>
-      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>General fatigue (e.g. low energy…), Something</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>all_filled.docx</t>
+          <t>FCB, Neymar 28-05-2025, Head filled.docx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>All filled</t>
+          <t>2025-11-10 13:42:46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC ALL</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>XXXXX</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Right, Left, Bilateral/central</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+          <t>Left, Face (eyes &amp; below), Temporal, Cervical, Right, Frontal, Parietal, Ear(s), Midline, Middle / Central, Occipital, Nose</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Contusion, Fracture, Laceration, Concussion, Dental, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Moderate TBI, Severe TBI, Other type</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Both, Overuse and Trauma</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Both, Gradual and Sudden</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Did everything</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>DIagnosis</t>
+          <t>No, Yes, with opponent, Yes, with teammate, Yes, with object</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Head, Shoulder, Knee, Other body part, Goalpost, Pitch / Surface, Ball, intended header, Ball, unintended, Cornerflag</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:53</t>
-        </is>
-      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Cognition (e.g. confusion, difficulties remembering…), Headache/Migraine (e.g. head/neck pain, sensitivity to light / noise…), General fatigue (e.g. low energy…), Anxiety/Mood (e.g. sadness, irritability, emotional…), Vestibular (e.g. balance problems, dizziness…), Ocular (e.g. blurry or double vision etc..), Something</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>all_filled.pdf</t>
+          <t>FCB, Neymar 28-05-2025, Head filled.pdf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>HEAD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>All filled</t>
+          <t>2025-11-10 13:42:47</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC ALL</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>XXXXX</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
+          <t>FCB</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Right, Left, Bilateral/central</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+          <t>Left, Face (eyes &amp; below), Temporal, Cervical, Right, Frontal, Parietal, Ear(s), Midline, Middle / Central, Occipital, Nose</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Contusion, Fracture, Laceration, Concussion, Dental, Mild Traumatic Brain Injury (TBI) with abnormality on MRI: TBI Injury, Moderate TBI, Severe TBI, Other type</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Both, Overuse and Trauma</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Both, Gradual and Sudden</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, Champions League, Other cup match, Other training, Reserve/youth team training, Europa League, Friendly match, National team, League match, Europa Conference League, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Did everything</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
-        </is>
-      </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>DIagnosis</t>
+          <t>No, Yes, with opponent, Yes, with teammate, Yes, with object</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Head, Shoulder, Knee, Other body part, Goalpost, Pitch / Surface, Ball, intended header, Ball, unintended, Cornerflag</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Header</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>No foul, Yellow card, Opponent foul, Red card, Own foul</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr">
         <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:53</t>
-        </is>
-      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>Cognition (e.g. confusion, difficulties remembering…), Headache/Migraine (e.g. head/neck pain, sensitivity to light / noise…), General fatigue (e.g. low energy…), Anxiety/Mood (e.g. sadness, irritability, emotional…), Vestibular (e.g. balance problems, dizziness…), Ocular (e.g. blurry or double vision etc..), Something</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>all_filled_print_to_pdf.pdf</t>
+          <t>FCZ, Player 12-12-2024, Lower.docx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>All filled</t>
+          <t>2025-11-10 13:42:47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC ALL</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>XXXXX</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-06-10</t>
-        </is>
-      </c>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Right, Left, Bilateral/central</t>
+          <t>Adductor longus, Foot</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
+          <t>Right, Left</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>Middle</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Intramuscular tendon rupture/tear/strain</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>Too many answers</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Both, Overuse and Trauma</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Both, Gradual and Sudden</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Did everything</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
+          <t>Reserve/youth team training</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
-        </is>
-      </c>
+          <t>Gradual onset</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr">
         <is>
-          <t>DIagnosis</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Too many answers</t>
-        </is>
-      </c>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Too many answers</t>
+          <t>Heading, Sliding/stretching</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Too many answers</t>
+          <t>Slide Tackle</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>Too many answers</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:54</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>contra_yes.docx</t>
+          <t>FCZ, Player 12-12-2024, Lower.pdf</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NAME SURNAME</t>
+          <t>2025-11-10 13:42:48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TEAM_NAME</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TEAM:CODE</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2022-05-03</t>
-        </is>
-      </c>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Adductor longus, Foot</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Custom Injury</t>
+          <t>Right, Left</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>National team</t>
-        </is>
-      </c>
+          <t>Intramuscular tendon rupture/tear/strain</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Trauma (acute mechanism)</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Sudden onset</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
+          <t>Fatigue-induced muscle disorder, Delayed onset muscle soreness</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Falling (incl. diving)</t>
+          <t>Too many answers</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>direct contact to the A-C joint on an unprotected fall</t>
+          <t>60</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Yes, 08.06.2014</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+          <t>Reserve/youth team training</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism), Trauma (Acute mechanism)</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>MRI, Custom Exam</t>
-        </is>
-      </c>
+          <t>Gradual onset</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr">
         <is>
-          <t>A-C joint II degree sprain</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Heading, Sliding/stretching</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:54</t>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>contra_yes.pdf</t>
+          <t>FCZ, Player 12-12-2024, Lower variant.docx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NAME SURNAME</t>
+          <t>2025-11-10 13:42:48</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TEAM_NAME</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TEAM:CODE</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2022-05-03</t>
-        </is>
-      </c>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Adductor longus, Gracilis, Foot</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Custom Injury</t>
+          <t>Right, Bilateral</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>Distal</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Hypertonia/spasm/trigger points</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Neuromuscular muscle disorder - muscle related</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>Match</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>National team</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Trauma (acute mechanism)</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Reserve/youth team training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Falling (incl. diving)</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>direct contact to the A-C joint on an unprotected fall</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Yes, 08.06.2014</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>MRI, Custom Exam</t>
-        </is>
-      </c>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
-          <t>A-C joint II degree sprain</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Heading, Other player action</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
+          <t>Slide Tackle</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:54</t>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>contra_yes_specific.docx</t>
+          <t>FCZ, Player 12-12-2024, Lower variant.pdf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OLD</t>
+          <t>LOWER_EXTREMITIES</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NAME SURNAME</t>
+          <t>2025-11-10 13:42:49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TEAM_NAME</t>
+          <t>LEG INJURED PLAYER</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TEAM:CODE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2022-05-03</t>
-        </is>
-      </c>
+          <t>FCZ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Thigh</t>
+          <t>Wrong date format</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Left</t>
+          <t>Adductor longus, Gracilis, Foot</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Joint sprain (i.e., ligament/capsule)</t>
+          <t>Right, Bilateral</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>Distal</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Hypertonia/spasm/trigger points</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Neuromuscular muscle disorder - muscle related</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>Match</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>National team</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Trauma (acute mechanism)</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Reserve/youth team training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Yes, direct contact (to injured body part)</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Falling (incl. diving)</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>direct contact to the A-C joint on an unprotected fall</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Yes, random text</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr">
         <is>
-          <t>A-C joint II degree sprain</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Heading, Other player action</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Yes, Using Contra 1</t>
+          <t>Slide Tackle</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>Yes, Using Hormone 1</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:54</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>Arthroscopy, MRI</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>2025-12-18, Wrong date format</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Leg injury</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Comment</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>contra_yes_specific.pdf</t>
+          <t>checked_not_filled.docx</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2079,141 +2598,152 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NAME SURNAME</t>
+          <t>2025-11-10 13:42:49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TEAM_NAME</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TEAM:CODE</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>xx11asx</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Thigh</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Joint sprain (i.e., ligament/capsule)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Muscle rupture/tear/strain**, Other injury</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Match</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>National team</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Trauma (acute mechanism)</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Friendly match</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism), Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Falling (incl. diving)</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>direct contact to the A-C joint on an unprotected fall</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Yes, random text</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>A-C joint II degree sprain</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Dive</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Yes, Using Contra 1</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>Yes, Using Hormone 1</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:55</t>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>No comment</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>xxxx_yy.docx</t>
+          <t>checked_not_filled.pdf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2223,275 +2753,3234 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NAME SURNAME</t>
+          <t>2025-11-10 13:42:49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TEAM_NAME</t>
+          <t>Neymar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TEAM:CODE</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>xx11asx</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Thigh</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Left</t>
-        </is>
-      </c>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Joint sprain (i.e., ligament/capsule)</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Muscle rupture/tear/strain**, Other injury</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Match</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>National team</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Trauma (acute mechanism)</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Friendly match</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism), Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Falling (incl. diving)</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>direct contact to the A-C joint on an unprotected fall</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Dive</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Opponent foul</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>MRI</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>A-C joint II degree sprain</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:55</t>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>No comment</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>empty.docx</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>empty.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>filled_not_checked.docx</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Luca F</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>FC B</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>xx11x</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Lower leg (incl. Achilles tendon), Thigh</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Muscle rupture/tear/strain**</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Friendly match</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Both, Gradual and Sudden</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Twisted the knee</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>No comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>filled_not_checked.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Luca F</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>FC B</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>xx11x</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-06-23</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Lower leg (incl. Achilles tendon), Thigh</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Muscle rupture/tear/strain**</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Friendly match</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Both, Gradual and Sudden</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Twisted the knee</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>Ultrasonography</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>No comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness.docx</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Dental</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Infection in other organs/body parts, Headache, migraine, or nausea, Sickness</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Dental</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Cold</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness variant.docx</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Unexplained fatigue, malaise or fever, Sickness</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Immunological, Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Miami, Messi 27-10-2025, Illness variant.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ILLNESS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Test_NAME</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024-05-23</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Unexplained fatigue, malaise or fever, Sickness</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Immunological, Check what happens if the comment is very long and extends 
+to another line</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2023-04-23</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to 
+another line</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee.docx</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Grade 1, Grade 2</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Hit by ball, Other player action</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>LET/ALL, Other</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>LET1, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>Synthetic MCL</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Right, Bilateral</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>MCL</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Grade 1, Grade 2</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Overuse (Repetitive mechanism)</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Yes, indirect contact (to other body part)</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Hit by ball, Other player action</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>LET/ALL, Other</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>LET1, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>Synthetic MCL</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee variant.docx</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>MCL, Cartilage PF, Injury combination</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Grade 3</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part), Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>Ultrasonography, Arthroscopy, X-ray, MRI</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>LET/ALL, Allograft, Other</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>No repair/reconstruction, Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>Check what happens if the comment is very long and extends to another line, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>Synthetic Check what happens if the comment is very long and extends to another lineMCL, Check what happens if the comment is very long and extends to another line</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PSG, Vitinha 23-04-2025, Knee variant.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>KNEE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>KNEE INJURED PLAYER</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1999-04-23</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Bilateral</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>MCL, Cartilage PF, Injury combination</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Grade 3</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Football &amp; other training, Reserve/youth team match</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Trauma (Acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part), Yes, indirect contact (to other body part), No</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Sliding/stretching, Other player action</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Running</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Opponent foul, Own foul</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>Ultrasonography, Arthroscopy, X-ray, MRI</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>2021-06-23</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Fractured</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>LET/ALL, Allograft, Other</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>No repair/reconstruction, Synthetic, Other</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>Check 
+what happens if the comment 
+is very long and extends to 
+another line, Other reconstruction</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>Synthetic Check what 
+happens if the comment is 
+very long and extends to 
+another lineMCL, Check what happens if the comment is very 
+long and extends to another line</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>all_filled.docx</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>All filled</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>FC ALL</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>XXXXX</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism), Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Both, Gradual and Sudden</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Did everything</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>DIagnosis</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>all_filled.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>All filled</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>FC ALL</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>XXXXX</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism), Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Both, Gradual and Sudden</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Did everything</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>DIagnosis</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>all_filled_print_to_pdf.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>All filled</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>FC ALL</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>XXXXX</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Head, Abdomen, Elbow, Hip, Lower leg (incl. Achilles tendon), Neck, Lumbosacral, Forearm, Groin, Ankle, Chest, Shoulder, Wrist, Thigh, Foot, Thoracic spine, Upper arm, Hand, Knee</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Right, Left, Bilateral/central</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Concussion, Meniscus lesion, Haematoma/contusion/bruise (incl. compartment syndrome), Fracture (specify if stress fracture), Cartilage lesion, Nerve injury (central or peripheral other than concussion), Other bone injury (e.g., bone stress), Muscle rupture/tear/strain**, Dental injury*, Joint dislocation/subluxation*, Tendon rupture/tendinopathy, Vessel injury (excl. skin haematoma), Joint sprain (i.e., ligament/capsule), Abrasion, Bursitis, Arthritis/synovitis/capsulitis, Laceration, Overuse unspecified, Additional Injury</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Football training, Football &amp; other training, League match, Friendly match, Other training, Reserve/youth team training, Champions League, Reserve/youth team match, National team, Other cup match</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Overuse (repetitive mechanism), Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Both, Gradual and Sudden</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Running/sprinting, Heading, Controlling the ball, Tackling other player, Blocked*, Twisting/turning, Landing (incl. jumping), Hit by ball, Tackled by other player, Use of arm/elbow*, Shooting/passing, Falling (incl. diving), Collision, Sliding/stretching*, Other player action</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Did everything</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>No foul, Opponent foul, Own foul, Yellow card, Red card</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>Clinical only, X-ray, Ultrasonography, MRI, Other</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>DIagnosis</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Too many answers</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>contra_yes.docx</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NAME SURNAME</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TEAM:CODE</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Thigh</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Custom Injury</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Falling (incl. diving)</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>direct contact to the A-C joint on an unprotected fall</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>2014-06-08</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>MRI, Custom Exam</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>A-C joint II degree sprain</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>contra_yes.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NAME SURNAME</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TEAM:CODE</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Thigh</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Custom Injury</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Falling (incl. diving)</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>direct contact to the A-C joint on an unprotected fall</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2014-06-08</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>MRI, Custom Exam</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>A-C joint II degree sprain</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>contra_yes_specific.docx</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NAME SURNAME</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TEAM:CODE</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Thigh</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Joint sprain (i.e., ligament/capsule)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Falling (incl. diving)</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>direct contact to the A-C joint on an unprotected fall</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>A-C joint II degree sprain</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>Yes, Using Contra 1</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>Yes, Using Hormone 1</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contra_yes_specific.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NAME SURNAME</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TEAM:CODE</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Thigh</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Joint sprain (i.e., ligament/capsule)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Falling (incl. diving)</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>direct contact to the A-C joint on an unprotected fall</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Wrong date format</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>A-C joint II degree sprain</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU34" t="inlineStr">
+        <is>
+          <t>Yes, Using Contra 1</t>
+        </is>
+      </c>
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>Yes, Using Hormone 1</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>xxxx_yy.docx</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OLD</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NAME SURNAME</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TEAM_NAME</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TEAM:CODE</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Thigh</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Left</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Joint sprain (i.e., ligament/capsule)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>National team</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Trauma (acute mechanism)</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Sudden onset</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Yes, direct contact (to injured body part)</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Falling (incl. diving)</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>direct contact to the A-C joint on an unprotected fall</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Opponent foul</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>MRI</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>A-C joint II degree sprain</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AU35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>xxxx_yy.pdf</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>OLD</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-11-10 13:42:56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>NAME SURNAME</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>TEAM_NAME</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>TEAM:CODE</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>2022-05-03</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Thigh</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Left</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Joint sprain (i.e., ligament/capsule)</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Match</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>National team</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>Trauma (acute mechanism)</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>Sudden onset</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
         <is>
           <t>Yes, direct contact (to injured body part)</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
         <is>
           <t>Falling (incl. diving)</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="AA36" t="inlineStr">
         <is>
           <t>direct contact to the A-C joint on an unprotected fall</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AB36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr">
         <is>
           <t>Opponent foul</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>MRI</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr">
         <is>
           <t>A-C joint II degree sprain</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="AJ36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AV36" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>2025-11-10 13:02:55</t>
-        </is>
-      </c>
+      <c r="AW36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
